--- a/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_AT.xlsx
+++ b/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_AT.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_calibration_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6AC2CD5-4B1A-4390-8A31-A9536E785849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A68DB2-9E57-40BF-A93A-5A0FE588B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62CAD946-657F-4064-AB62-2126B593591B}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{080C5AD8-C464-4C5E-9501-79B4030A6360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1246,21 +1246,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526540C6-D08F-47D4-B618-872BECEC9B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1CF4F3-5EC9-4B44-8D90-1A45DAF6ED75}">
   <dimension ref="A1:X217"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>140</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>143</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>154</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>160</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>160</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0.240118848</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>169</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>169</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>170</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>171</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>171</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>171</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>172</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>172</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>173</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>174</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>175</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>176</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>177</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>178</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>179</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>182</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>182</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>184</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>185</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>186</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>187</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>188</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>189</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>190</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>192</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>193</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>194</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>194</v>
       </c>
@@ -10125,7 +10125,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>196</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>196</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>201</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>206</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>206</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>209</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>213</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>217</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>217</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>218</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>218</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>219</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>219</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>220</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>220</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>221</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>222</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>223</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>224</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>225</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>226</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>227</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>229</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>229</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>229</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>229</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>231</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>231</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>231</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>231</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>232</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>235</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>237</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>237</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>237</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>242</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>242</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>242</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>0.59760956175298796</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>250</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>0.59760956175298796</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>0.40239043824701098</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>250</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>0.40239043824701098</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>0.349959099</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>259</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>263</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>267</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>270</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>270</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>272</v>
       </c>
@@ -13753,47 +13753,47 @@
         <v>0.02</v>
       </c>
       <c r="N213">
-        <f t="shared" ref="N213:W216" si="0">M213</f>
+        <f t="shared" ref="N213:W216" ca="1" si="0">M213</f>
         <v>0.02</v>
       </c>
       <c r="O213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="Q213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="R213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="S213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="T213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="U213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="V213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="W213">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>272</v>
       </c>
@@ -13822,47 +13822,47 @@
         <v>0.05</v>
       </c>
       <c r="N214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W214">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>272</v>
       </c>
@@ -13891,47 +13891,47 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W215">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>272</v>
       </c>
@@ -13960,47 +13960,47 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W216">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>277</v>
       </c>
